--- a/private/CUG/scienceSurfing/vpn compare.xlsx
+++ b/private/CUG/scienceSurfing/vpn compare.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
   <si>
     <t>價格</t>
   </si>
@@ -41,6 +41,9 @@
     <t>公司</t>
   </si>
   <si>
+    <t>中國可用</t>
+  </si>
+  <si>
     <t>連接數</t>
   </si>
   <si>
@@ -86,6 +89,12 @@
     <t>PIA</t>
   </si>
   <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -98,9 +107,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>OpenVPN</t>
   </si>
   <si>
@@ -110,18 +116,27 @@
     <t>cyber</t>
   </si>
   <si>
+    <t>lantern</t>
+  </si>
+  <si>
+    <t>340、</t>
+  </si>
+  <si>
+    <t>620、</t>
+  </si>
+  <si>
+    <t>proton P</t>
+  </si>
+  <si>
+    <t>10G</t>
+  </si>
+  <si>
     <t>nord</t>
   </si>
   <si>
     <t>巴拿馬</t>
   </si>
   <si>
-    <t>proton P</t>
-  </si>
-  <si>
-    <t>10G</t>
-  </si>
-  <si>
     <t>Surfshark</t>
   </si>
   <si>
@@ -131,13 +146,25 @@
     <t>Express</t>
   </si>
   <si>
-    <t>lantern</t>
-  </si>
-  <si>
-    <t>340、</t>
-  </si>
-  <si>
-    <t>620、</t>
+    <t>vypr</t>
+  </si>
+  <si>
+    <t>hotspot</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>astrill</t>
+  </si>
+  <si>
+    <t>NordLynx/WireGuard</t>
+  </si>
+  <si>
+    <t>OpenVPN UDP</t>
+  </si>
+  <si>
+    <t>OpenVPN TCP</t>
   </si>
   <si>
     <t>VPN protocol comparison</t>
@@ -213,7 +240,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,31 +262,50 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,6 +318,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,36 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -323,6 +362,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -363,14 +409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +423,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,21 +437,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -440,19 +471,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,73 +615,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,79 +645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,6 +674,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -654,6 +700,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,30 +747,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -743,7 +774,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,134 +792,134 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -903,35 +934,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,21 +1035,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1273,108 +1321,114 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="11.5454545454545" style="9" customWidth="1"/>
-    <col min="2" max="2" width="6.27272727272727" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.81818181818182" style="9" customWidth="1"/>
-    <col min="4" max="5" width="6.27272727272727" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.09090909090909" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.54545454545454" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.63636363636364" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.0909090909091" style="9" customWidth="1"/>
-    <col min="11" max="11" width="5.27272727272727" style="9" customWidth="1"/>
-    <col min="12" max="12" width="7.45454545454545" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9.18181818181818" style="9" customWidth="1"/>
-    <col min="14" max="14" width="7.45454545454545" style="9" customWidth="1"/>
-    <col min="15" max="15" width="14" style="9" customWidth="1"/>
-    <col min="16" max="16" width="8.54545454545454" style="9" customWidth="1"/>
-    <col min="17" max="17" width="7.81818181818182" style="9" customWidth="1"/>
-    <col min="18" max="18" width="6.27272727272727" style="9" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="13.6363636363636" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" customWidth="1"/>
+    <col min="3" max="4" width="8.09090909090909" style="8" customWidth="1"/>
+    <col min="5" max="5" width="4.45454545454545" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.36363636363636" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.36363636363636" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.63636363636364" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.6363636363636" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.72727272727273" style="8" customWidth="1"/>
+    <col min="11" max="11" width="12.7272727272727" style="8" customWidth="1"/>
+    <col min="12" max="12" width="5.81818181818182" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8.36363636363636" style="8" customWidth="1"/>
+    <col min="14" max="14" width="10.7272727272727" style="8" customWidth="1"/>
+    <col min="15" max="15" width="8.36363636363636" style="8" customWidth="1"/>
+    <col min="16" max="16" width="16.4545454545455" style="8" customWidth="1"/>
+    <col min="17" max="17" width="9.63636363636364" style="8" customWidth="1"/>
+    <col min="18" max="18" width="11.4545454545455" style="8" customWidth="1"/>
+    <col min="19" max="19" width="7" style="8" customWidth="1"/>
+    <col min="20" max="20" width="12.6363636363636" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="2:7">
-      <c r="B1" s="10" t="s">
+    <row r="1" s="7" customFormat="1" spans="2:8">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:19">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:20">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="P2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="T2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="12">
         <v>11</v>
@@ -1387,9 +1441,9 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="G3" s="13"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1401,10 +1455,11 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="13" t="s">
-        <v>22</v>
+      <c r="S3" s="11"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="11">
         <v>10</v>
@@ -1416,39 +1471,50 @@
       <c r="E4" s="11">
         <v>79</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11">
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="11">
         <v>10</v>
       </c>
-      <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11">
+      <c r="J4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="11">
         <v>3</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11">
         <v>2</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="14" t="s">
-        <v>24</v>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="11">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="16">
         <v>48</v>
       </c>
       <c r="D5" s="11">
@@ -1456,49 +1522,50 @@
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="11">
+        <v>28</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11">
         <v>2</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="11">
+      <c r="L5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="11">
         <v>3</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="11">
+      <c r="N5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="11">
         <v>2</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="P5" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="11">
         <v>13</v>
@@ -1512,87 +1579,73 @@
       <c r="E6" s="11">
         <v>85</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
+      <c r="F6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11">
         <v>7</v>
       </c>
-      <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11">
+      <c r="J6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="11">
         <v>3</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11">
         <v>2</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="R6" s="11"/>
-      <c r="S6" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="S6" s="11"/>
+      <c r="T6" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="11">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11">
-        <v>59</v>
-      </c>
-      <c r="D7" s="11">
-        <v>89</v>
+        <v>33</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="11">
-        <v>6</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="11">
         <v>3</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="11">
-        <v>2</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="14" t="s">
-        <v>33</v>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="B8" s="11">
         <v>7.5</v>
@@ -1605,255 +1658,335 @@
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="11">
+        <v>28</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="11">
         <v>10</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" s="11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="11">
+        <v>25</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="11">
         <v>3</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="N8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="11">
         <v>2</v>
       </c>
-      <c r="O8" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="P8" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="11" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="11">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11">
+        <v>59</v>
+      </c>
+      <c r="D9" s="11">
+        <v>89</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>6</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="11">
+        <v>3</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="11">
+        <v>2</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="11">
         <v>10</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C10" s="19">
         <v>78</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>60</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11">
-        <v>3</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="11">
-        <v>2</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="17"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="11">
-        <v>13</v>
-      </c>
-      <c r="C10" s="16">
-        <v>100</v>
-      </c>
-      <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11">
+      <c r="G10" s="13">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11">
         <v>3</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11">
+      <c r="N10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="11">
         <v>2</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
+      <c r="P10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="R10" s="11"/>
-      <c r="S10" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="11">
+        <v>13</v>
+      </c>
+      <c r="C11" s="19">
+        <v>100</v>
+      </c>
+      <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11">
+      <c r="F11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="13">
         <v>3</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="M11" s="11">
+        <v>3</v>
+      </c>
       <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="O11" s="11">
+        <v>2</v>
+      </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="17"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S11" s="11"/>
+      <c r="T11" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="13">
+        <v>4</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="9">
+        <v>5</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11">
+        <v>2</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23">
+        <v>6</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25">
+        <v>7</v>
+      </c>
+      <c r="H15" s="24">
+        <v>2</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -1865,15 +1998,16 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -1885,15 +2019,16 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -1905,99 +2040,142 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
-    </row>
-    <row r="31" ht="23.5" spans="1:7">
-      <c r="A31" s="21"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="28"/>
     </row>
   </sheetData>
-  <sortState ref="A3:S33">
+  <sortState ref="A3:T33">
     <sortCondition ref="C3"/>
   </sortState>
-  <conditionalFormatting sqref="J4:K4">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+  <conditionalFormatting sqref="K4">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:K12">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+  <conditionalFormatting sqref="J9:J10">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:J6">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+  <conditionalFormatting sqref="J4:J6 K6:L6">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+  <conditionalFormatting sqref="K5:L5 L4">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="Q5:Q6 Q9">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="T6 T9">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P7">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+  <conditionalFormatting sqref="T7 T10:T11">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S5">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S9:S11">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:K5">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+  <conditionalFormatting sqref="K9:L9 K10:K11 K13:K15">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2028,7 +2206,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2048,168 +2226,168 @@
     </row>
     <row r="3" ht="45" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>55</v>
+      <c r="A7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>55</v>
+      <c r="F9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
-        <v>61</v>
+      <c r="A10" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
